--- a/_site/Data/OtherHardships.2CC.xlsx
+++ b/_site/Data/OtherHardships.2CC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>If you rent your home, have you applied for any assistance through the Emergency Rental Assistance Program to help cover your rent?</t>
@@ -56,7 +56,7 @@
 • Not applicable</t>
   </si>
   <si>
-    <t>27</t>
+    <t>08/02/2021-08/26/2021</t>
   </si>
   <si>
     <t>Have you received assistance through the Emergency Rental Assistance Program?</t>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1510,8 +1510,8 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="20">
-        <v>27</v>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" customHeight="1">
